--- a/ComcastCRMGUIFramworkOR/testdata/testdataorg.xlsx
+++ b/ComcastCRMGUIFramworkOR/testdata/testdataorg.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
     <sheet name="contact" sheetId="2" r:id="rId2"/>
+    <sheet name="product" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>TC_ID</t>
   </si>
@@ -108,13 +109,34 @@
   </si>
   <si>
     <t>sharma_</t>
+  </si>
+  <si>
+    <t>BrandName</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 (128 GB) - Black</t>
+  </si>
+  <si>
+    <t>iPhone 16 128 GB: 5G Mobile Phone with Camera Control, A18 Chip and a Big Boost in Battery Life. Works with AirPods; Teal</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (128GB) - Starlight</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (128GB) - Pink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -122,9 +144,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF221A15"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -157,19 +200,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,7 +579,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -622,4 +675,66 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://www.amazon.in/Apple-iPhone-13-128GB-Starlight/dp/B09G9D8KRQ/ref=sr_1_3?crid=3MOJEFKLSGDBE&amp;dib=eyJ2IjoiMSJ9.OCoJgZ8ghdguKvc7Ozmt3PoqICET9KbBep8_jcae4nB8S_xG6IpNjegG3lWXZcvr1ysP0YLYim1plytEuc3Kj5ELmATQD6JaFak76e0E-3pmI_4DYdU6SoLQexEZLnZsOof82CuIHfakfxm9ue5P2wtsql2J_Dse_s79sFPNXyShz5U_M4N0g4Mr8G_ta7kkK5M6c6T8tsc37XSuQv1NBlleiJSdiq5v4U5NIm-cI7U.ZGoVbo-QdJKg81etfHXkwCCT0XQGrKej4dyDlk-uVIw&amp;dib_tag=se&amp;keywords=iphone&amp;qid=1734321516&amp;sprefix=iphone%2Caps%2C204&amp;sr=8-3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>